--- a/solemate-library/src/main/resources/solemate-data.xlsx
+++ b/solemate-library/src/main/resources/solemate-data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="49">
   <si>
     <t>Merk</t>
   </si>
@@ -1272,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J494"/>
+  <dimension ref="A1:J495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A482" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J493" sqref="J493"/>
+    <sheetView tabSelected="1" topLeftCell="A485" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J495" sqref="J495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17101,6 +17101,38 @@
         <v>4</v>
       </c>
     </row>
+    <row r="495" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A495" s="6">
+        <v>494</v>
+      </c>
+      <c r="B495" s="15">
+        <v>43521</v>
+      </c>
+      <c r="C495" s="9">
+        <v>0</v>
+      </c>
+      <c r="D495" s="9">
+        <v>52</v>
+      </c>
+      <c r="E495" s="9">
+        <v>50</v>
+      </c>
+      <c r="F495" s="5">
+        <v>10520</v>
+      </c>
+      <c r="G495" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H495" s="6">
+        <v>0</v>
+      </c>
+      <c r="I495" s="6">
+        <v>0</v>
+      </c>
+      <c r="J495" s="12">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
